--- a/sc2002/src/main/resources/Medicine_List.xlsx
+++ b/sc2002/src/main/resources/Medicine_List.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2024S1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C048B4EB-70E3-47B1-AB1B-763235055723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,8 +37,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,10 +50,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,54 +79,73 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -159,79 +178,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -252,54 +271,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -309,7 +327,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -318,7 +336,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -327,7 +345,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -335,10 +353,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -367,7 +385,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -380,13 +398,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -404,61 +421,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" style="5" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="26.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>75</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>15</v>
       </c>
     </row>

--- a/sc2002/src/main/resources/Medicine_List.xlsx
+++ b/sc2002/src/main/resources/Medicine_List.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmund\Documents\GitHub\SC2002\sc2002\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93044948-62D4-4EEC-A593-4B96B5CA5748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="4656" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Medication" r:id="rId3" sheetId="1"/>
+    <sheet name="Medication" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Medicine Name</t>
   </si>
@@ -30,21 +38,17 @@
   </si>
   <si>
     <t>AMOXICILLIN</t>
-  </si>
-  <si>
-    <t>TETET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -54,7 +58,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -72,73 +76,392 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>20.0</v>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>10.0</v>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n" s="0">
-        <v>75.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>5.0</v>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sc2002/src/main/resources/Medicine_List.xlsx
+++ b/sc2002/src/main/resources/Medicine_List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmund\Documents\GitHub\SC2002\sc2002\src\main\resources\"/>
     </mc:Choice>
@@ -44,6 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,46 +419,46 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="C3" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="0" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="C4" s="0">
         <v>15</v>
       </c>
     </row>

--- a/sc2002/src/main/resources/Medicine_List.xlsx
+++ b/sc2002/src/main/resources/Medicine_List.xlsx
@@ -433,8 +433,8 @@
       <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" s="0">
-        <v>100</v>
+      <c r="B2" s="0" t="n">
+        <v>110.0</v>
       </c>
       <c r="C2" s="0">
         <v>20</v>
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>74.0</v>
+        <v>79.0</v>
       </c>
       <c r="C4" s="0">
         <v>15</v>

--- a/sc2002/src/main/resources/Medicine_List.xlsx
+++ b/sc2002/src/main/resources/Medicine_List.xlsx
@@ -403,9 +403,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -423,8 +423,8 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>19</v>
+      <c r="B2" s="2" t="n">
+        <v>18.0</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
@@ -445,8 +445,8 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>40</v>
+      <c r="B4" s="2" t="n">
+        <v>39.0</v>
       </c>
       <c r="C4" s="2">
         <v>15</v>

--- a/sc2002/src/main/resources/Medicine_List.xlsx
+++ b/sc2002/src/main/resources/Medicine_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Medicine Name</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>AMOXICILLIN</t>
+  </si>
+  <si>
+    <t>JIJIJI</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -434,8 +437,8 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>70</v>
+      <c r="B3" s="2" t="n">
+        <v>68.0</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -446,10 +449,21 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="C4" s="2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C5" t="n" s="4">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/src/main/resources/Medicine_List.xlsx
+++ b/sc2002/src/main/resources/Medicine_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Medicine Name</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>AMOXICILLIN</t>
-  </si>
-  <si>
-    <t>JIJIJI</t>
   </si>
 </sst>
 </file>
@@ -400,15 +397,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="13.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -426,8 +423,8 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>18.0</v>
+      <c r="B2" s="2">
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
@@ -437,8 +434,8 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>68.0</v>
+      <c r="B3" s="2">
+        <v>68</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -448,22 +445,11 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>35.0</v>
+      <c r="B4" s="2">
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="C5" t="n" s="4">
-        <v>5.0</v>
       </c>
     </row>
   </sheetData>
